--- a/files/system/import-misc-sample.xlsx
+++ b/files/system/import-misc-sample.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+  <si>
+    <t xml:space="preserve">Item description</t>
+  </si>
   <si>
     <t xml:space="preserve">Internal ID</t>
   </si>
@@ -34,12 +37,12 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
+    <t xml:space="preserve">BL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Qty</t>
   </si>
   <si>
-    <t xml:space="preserve">BL</t>
-  </si>
-  <si>
     <t xml:space="preserve">ICC</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t xml:space="preserve">Inspection Authority</t>
   </si>
   <si>
+    <t xml:space="preserve">Lifts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date of discharged</t>
   </si>
   <si>
@@ -94,7 +100,10 @@
     <t xml:space="preserve">Inspection Passed</t>
   </si>
   <si>
-    <t xml:space="preserve">G-373-75-2</t>
+    <t xml:space="preserve">1500 Ts--Traverse--18 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-1500-1-1</t>
   </si>
   <si>
     <t xml:space="preserve">Traverse</t>
@@ -132,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-809]dd\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -168,6 +177,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -217,18 +233,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFEEECE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEEECE1"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFEEECE1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -238,9 +254,9 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -248,6 +264,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -297,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,42 +350,50 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -446,32 +477,35 @@
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <pane xSplit="6" ySplit="0" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="5.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="5.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="11.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="10.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="2" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="25" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="5.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="21" style="2" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="27" style="2" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -547,109 +581,119 @@
       <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AMG1" s="6"/>
-      <c r="AMH1" s="6"/>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="AMI1" s="6"/>
       <c r="AMJ1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="8" t="n">
-        <v>373</v>
+        <v>26</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>1230</v>
+      </c>
+      <c r="G2" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="n">
-        <v>1230</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="11" t="n">
+      <c r="H2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="13" t="n">
+      <c r="L2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="15" t="n">
         <v>39476</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="15" t="n">
         <v>39454</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="15" t="n">
         <v>41981</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="15" t="n">
         <v>44891</v>
       </c>
-      <c r="S2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="14" t="n">
+      <c r="T2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="V2" s="16"/>
+      <c r="W2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="W2" s="14" t="n">
+      <c r="Y2" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="X2" s="14" t="n">
+      <c r="Z2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="C6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/files/system/import-misc-sample.xlsx
+++ b/files/system/import-misc-sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t xml:space="preserve">Item description</t>
   </si>
@@ -88,7 +88,10 @@
     <t xml:space="preserve">Date of discharged</t>
   </si>
   <si>
-    <t xml:space="preserve">Remarks</t>
+    <t xml:space="preserve">Remarks Load Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks Visual Inspection</t>
   </si>
   <si>
     <t xml:space="preserve">Initial Test Passed</t>
@@ -128,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">DNV ins. &amp; Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load test Carried out by Master &amp; DNV Inspector in Durban 26.11.2022</t>
   </si>
   <si>
     <t xml:space="preserve">Annual Visual Inspection Carried out by Master &amp; DNV Inspector in Durban 26.11.2022</t>
@@ -477,9 +483,9 @@
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="0" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="6" ySplit="0" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topRight" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -502,10 +508,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="11.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="21" style="2" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="27" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="21" style="2" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="28" style="2" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -587,15 +593,17 @@
       <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AMI1" s="6"/>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="AMJ1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1500</v>
@@ -604,7 +612,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="12" t="n">
         <v>1230</v>
@@ -613,63 +621,66 @@
         <v>4</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="13" t="n">
         <v>2</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="15" t="n">
         <v>39476</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O2" s="15" t="n">
         <v>39454</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="15" t="n">
         <v>41981</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="15" t="n">
         <v>44891</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U2" s="16" t="n">
         <v>8</v>
       </c>
       <c r="V2" s="16"/>
       <c r="W2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="16" t="n">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="Y2" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Z2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
       <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="18"/>

--- a/files/system/import-misc-sample.xlsx
+++ b/files/system/import-misc-sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t xml:space="preserve">Item description</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">Remarks Visual Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial Test Passed</t>
   </si>
   <si>
     <t xml:space="preserve">Last Test Passed</t>
@@ -485,7 +482,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="6" ySplit="0" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -509,9 +506,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="21" style="2" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="28" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="27" style="2" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -593,17 +590,15 @@
       <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AMJ1" s="6"/>
+      <c r="AMI1" s="6"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1500</v>
@@ -612,7 +607,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="12" t="n">
         <v>1230</v>
@@ -621,66 +616,63 @@
         <v>4</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="K2" s="13" t="n">
         <v>2</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="15" t="n">
         <v>39476</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" s="15" t="n">
         <v>39454</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="15" t="n">
         <v>41981</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S2" s="15" t="n">
         <v>44891</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U2" s="16" t="n">
         <v>8</v>
       </c>
       <c r="V2" s="16"/>
       <c r="W2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="Y2" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Z2" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="16" t="n">
         <v>1</v>
       </c>
+      <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
       <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="18"/>
